--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_38_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_38_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_0</t>
+          <t>model_38_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9885110755690726</v>
+        <v>0.9847241080023124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7211477939012139</v>
+        <v>0.7782700835301115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8788016352965728</v>
+        <v>0.9131462369472565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4163747721493818</v>
+        <v>0.9979568271910015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7100068336625507</v>
+        <v>0.9475706225425775</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0768264905712444</v>
+        <v>0.1021499601275519</v>
       </c>
       <c r="H2" t="n">
-        <v>1.864685986178928</v>
+        <v>1.482708972406531</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08490138424908109</v>
+        <v>0.6302255212772866</v>
       </c>
       <c r="J2" t="n">
-        <v>0.248629762263444</v>
+        <v>0.008060567725641947</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1667655732562625</v>
+        <v>0.3191429823593493</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5959115468295775</v>
+        <v>0.2141053876250414</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2771759198978951</v>
+        <v>0.3196090739130413</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003777180634825</v>
+        <v>1.005022211067733</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2889758726412015</v>
+        <v>0.3332154938715105</v>
       </c>
       <c r="P2" t="n">
-        <v>199.1324115379797</v>
+        <v>198.5626266961018</v>
       </c>
       <c r="Q2" t="n">
-        <v>317.3633665501952</v>
+        <v>316.7935817083173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_1</t>
+          <t>model_38_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9875380671670388</v>
+        <v>0.9847257194124726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7193741025640704</v>
+        <v>0.7782252281842231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8367239359447017</v>
+        <v>0.913149166197611</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3242917730575059</v>
+        <v>0.9979775019527161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6502710432002289</v>
+        <v>0.9475790635415923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08333300223593579</v>
+        <v>0.1021391846203914</v>
       </c>
       <c r="H3" t="n">
-        <v>1.876546668317504</v>
+        <v>1.483008920311027</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1143774826249323</v>
+        <v>0.6302042661437535</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2878579742738028</v>
+        <v>0.007979003250881111</v>
       </c>
       <c r="K3" t="n">
-        <v>0.20111767012179</v>
+        <v>0.3190916011351139</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7665835174457566</v>
+        <v>0.2143494032695623</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2886745611167285</v>
+        <v>0.3195922161448733</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004097073808097</v>
+        <v>1.00502168128905</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3009640348221893</v>
+        <v>0.3331979184332512</v>
       </c>
       <c r="P3" t="n">
-        <v>198.9698212459293</v>
+        <v>198.5628376815105</v>
       </c>
       <c r="Q3" t="n">
-        <v>317.2007762581448</v>
+        <v>316.7937926937259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_2</t>
+          <t>model_38_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9861740093455293</v>
+        <v>0.984727427693037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7172634874391222</v>
+        <v>0.7781752217276269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7838104637355261</v>
+        <v>0.9131526113888782</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2242972570769266</v>
+        <v>0.9980003533646234</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5810048506038038</v>
+        <v>0.9475885221002013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09245446316927829</v>
+        <v>0.1021277613403911</v>
       </c>
       <c r="H4" t="n">
-        <v>1.890660361376522</v>
+        <v>1.483343313716544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1514442124193258</v>
+        <v>0.6301792672561293</v>
       </c>
       <c r="J4" t="n">
-        <v>0.330456565886198</v>
+        <v>0.00788885162371821</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2409503891527619</v>
+        <v>0.3190340259215662</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9270186637802726</v>
+        <v>0.2146208319317897</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3040632552106194</v>
+        <v>0.3195743439958707</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004545531174073</v>
+        <v>1.005021119662563</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3170078574826455</v>
+        <v>0.3331792854298651</v>
       </c>
       <c r="P4" t="n">
-        <v>198.7620780914803</v>
+        <v>198.5630613746774</v>
       </c>
       <c r="Q4" t="n">
-        <v>316.9930331036958</v>
+        <v>316.7940163868929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_3</t>
+          <t>model_38_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9845288102546438</v>
+        <v>0.9847291825453827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7149281836971382</v>
+        <v>0.7781194867236854</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7232025918536723</v>
+        <v>0.9131563965416019</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1195683719332069</v>
+        <v>0.9980256817753247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.505299258186761</v>
+        <v>0.9475989732751605</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1034559170654755</v>
+        <v>0.1021160266346749</v>
       </c>
       <c r="H5" t="n">
-        <v>1.906276548252254</v>
+        <v>1.483716013944538</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1939009916980881</v>
+        <v>0.6301518015509655</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3750720426901981</v>
+        <v>0.00778892793202598</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2844861961429237</v>
+        <v>0.3189704085507825</v>
       </c>
       <c r="L5" t="n">
-        <v>1.076974180203729</v>
+        <v>0.2149184455231428</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3216456389654234</v>
+        <v>0.319555983568881</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005086418546419</v>
+        <v>1.005020542724806</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3353387597144433</v>
+        <v>0.3331601433614871</v>
       </c>
       <c r="P5" t="n">
-        <v>198.53721935816</v>
+        <v>198.5632911923056</v>
       </c>
       <c r="Q5" t="n">
-        <v>316.7681743703754</v>
+        <v>316.7942462045211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_4</t>
+          <t>model_38_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9826944843828936</v>
+        <v>0.9847309842769231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7124599431454358</v>
+        <v>0.7780573467970249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6575671315294415</v>
+        <v>0.9131608004207868</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01278350880949164</v>
+        <v>0.9980535883959714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4257687368171947</v>
+        <v>0.9476106374599051</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1157220626161629</v>
+        <v>0.1021039784475683</v>
       </c>
       <c r="H6" t="n">
-        <v>1.92278168418669</v>
+        <v>1.484131543920244</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2398796767322374</v>
+        <v>0.6301198462624725</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4205633851901822</v>
+        <v>0.00767883288537833</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3302215945148005</v>
+        <v>0.3188994074653847</v>
       </c>
       <c r="L6" t="n">
-        <v>1.216420300260012</v>
+        <v>0.21524815386702</v>
       </c>
       <c r="M6" t="n">
-        <v>0.340179456487547</v>
+        <v>0.3195371315630913</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005689484586446</v>
+        <v>1.00501995037471</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3546616002187751</v>
+        <v>0.333140488786782</v>
       </c>
       <c r="P6" t="n">
-        <v>198.3131279496706</v>
+        <v>198.5635271767698</v>
       </c>
       <c r="Q6" t="n">
-        <v>316.5440829618861</v>
+        <v>316.7944821889853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_5</t>
+          <t>model_38_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9807465512710989</v>
+        <v>0.9847327539163437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7099324754245284</v>
+        <v>0.7779880363266928</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5891174409919915</v>
+        <v>0.9131655601122836</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.09387391744958484</v>
+        <v>0.9980844602171387</v>
       </c>
       <c r="F7" t="n">
-        <v>0.344572244339848</v>
+        <v>0.9476235032115261</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1287479003041412</v>
+        <v>0.1020921448606139</v>
       </c>
       <c r="H7" t="n">
-        <v>1.939682872474317</v>
+        <v>1.4845950233545</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2878297748401734</v>
+        <v>0.6300853091399672</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4660004384034002</v>
+        <v>0.007557039758415661</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3769150383134928</v>
+        <v>0.3188210923195311</v>
       </c>
       <c r="L7" t="n">
-        <v>1.345511100340016</v>
+        <v>0.2156179553355285</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3588145764934045</v>
+        <v>0.3195186142631034</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006329900951968</v>
+        <v>1.005019368575449</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3740900558632984</v>
+        <v>0.3331211831669975</v>
       </c>
       <c r="P7" t="n">
-        <v>198.0997980957773</v>
+        <v>198.563758985029</v>
       </c>
       <c r="Q7" t="n">
-        <v>316.3307531079927</v>
+        <v>316.7947139972444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_6</t>
+          <t>model_38_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9787457448688409</v>
+        <v>0.9847344321043163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7074035190760246</v>
+        <v>0.7779107242167953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5196439849982455</v>
+        <v>0.9131707537530881</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1986646535704528</v>
+        <v>0.9981184524275193</v>
       </c>
       <c r="F8" t="n">
-        <v>0.263443276987134</v>
+        <v>0.9476376102259105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1421273019289069</v>
+        <v>0.1020809228099134</v>
       </c>
       <c r="H8" t="n">
-        <v>1.956594015221536</v>
+        <v>1.485112009789374</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3364970369510941</v>
+        <v>0.6300476232082547</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5106422642975532</v>
+        <v>0.007422936312681356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4235696506243236</v>
+        <v>0.3187352214802963</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46453753127546</v>
+        <v>0.2160239388085168</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3769977479095954</v>
+        <v>0.3195010529089277</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006987700317094</v>
+        <v>1.005018816842417</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3930473225310304</v>
+        <v>0.3331028741896175</v>
       </c>
       <c r="P8" t="n">
-        <v>197.9020642610663</v>
+        <v>198.5639788387215</v>
       </c>
       <c r="Q8" t="n">
-        <v>316.1330192732818</v>
+        <v>316.794933850937</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_7</t>
+          <t>model_38_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9767394519909179</v>
+        <v>0.984736004223032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7049172879163836</v>
+        <v>0.7778244114084276</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4505527344962559</v>
+        <v>0.9131767564208167</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.300281410714893</v>
+        <v>0.998155908914519</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1837228597975122</v>
+        <v>0.9476533170796431</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1555433916417071</v>
+        <v>0.1020704100448234</v>
       </c>
       <c r="H9" t="n">
-        <v>1.973219454434097</v>
+        <v>1.485689183936363</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3848965580293934</v>
+        <v>0.6300040668410306</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5539319456978078</v>
+        <v>0.007275165870114786</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4694142518636006</v>
+        <v>0.318639612255339</v>
       </c>
       <c r="L9" t="n">
-        <v>1.573917063879149</v>
+        <v>0.2164754690042344</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3943898979965221</v>
+        <v>0.3194846006380017</v>
       </c>
       <c r="N9" t="n">
-        <v>1.007647303455041</v>
+        <v>1.005018299981469</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4111798924538715</v>
+        <v>0.3330857215114572</v>
       </c>
       <c r="P9" t="n">
-        <v>197.7216610807231</v>
+        <v>198.5641848185689</v>
       </c>
       <c r="Q9" t="n">
-        <v>315.9526160929386</v>
+        <v>316.7951398307844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_8</t>
+          <t>model_38_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9747640794399574</v>
+        <v>0.9847373385806666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7025064751545399</v>
+        <v>0.7777279938326364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3829247854591086</v>
+        <v>0.9131833586182758</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3977607877912666</v>
+        <v>0.9981971736640816</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1064265325730258</v>
+        <v>0.9476706292908449</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1687527169857347</v>
+        <v>0.1020614871891763</v>
       </c>
       <c r="H10" t="n">
-        <v>1.989340570473317</v>
+        <v>1.486333928709641</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4322710131322332</v>
+        <v>0.6299561601851873</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5954590648001554</v>
+        <v>0.007112371363910594</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5138648383480948</v>
+        <v>0.3185342310552922</v>
       </c>
       <c r="L10" t="n">
-        <v>1.674144856777629</v>
+        <v>0.216976940469268</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4107952251252864</v>
+        <v>0.3194706358793813</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008296741006041</v>
+        <v>1.005017861288548</v>
       </c>
       <c r="O10" t="n">
-        <v>0.428283628322216</v>
+        <v>0.3330711622441515</v>
       </c>
       <c r="P10" t="n">
-        <v>197.5586416974058</v>
+        <v>198.5643596634761</v>
       </c>
       <c r="Q10" t="n">
-        <v>315.7895967096213</v>
+        <v>316.7953146756915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_9</t>
+          <t>model_38_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9728466100973805</v>
+        <v>0.9847382912620887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7001944640563837</v>
+        <v>0.7776202662206619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3175626551277976</v>
+        <v>0.9131905282797624</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4904465015305295</v>
+        <v>0.9982425795154963</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03228512736492462</v>
+        <v>0.9476896157134302</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1815748433086804</v>
+        <v>0.1020551166041202</v>
       </c>
       <c r="H11" t="n">
-        <v>2.00480099933252</v>
+        <v>1.487054303746954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4780582261542603</v>
+        <v>0.6299041359148626</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6349440388426224</v>
+        <v>0.006933239702184749</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5565011324984414</v>
+        <v>0.3184186587593376</v>
       </c>
       <c r="L11" t="n">
-        <v>1.765758456491964</v>
+        <v>0.2175362640795841</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4261159974803579</v>
+        <v>0.3194606651907559</v>
       </c>
       <c r="N11" t="n">
-        <v>1.008927141885793</v>
+        <v>1.005017548078218</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4442566376748139</v>
+        <v>0.333060767082669</v>
       </c>
       <c r="P11" t="n">
-        <v>197.4121747008935</v>
+        <v>198.5644845055504</v>
       </c>
       <c r="Q11" t="n">
-        <v>315.643129713109</v>
+        <v>316.7954395177659</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_10</t>
+          <t>model_38_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9710062191156172</v>
+        <v>0.9847388221018115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.697996905081139</v>
+        <v>0.7774998056632001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2550253518257818</v>
+        <v>0.9131990603402242</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5779198645762864</v>
+        <v>0.998292383165009</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03820437460816506</v>
+        <v>0.9477108467263303</v>
       </c>
       <c r="G12" t="n">
-        <v>0.193881546277953</v>
+        <v>0.1020515668764489</v>
       </c>
       <c r="H12" t="n">
-        <v>2.01949608631881</v>
+        <v>1.487859824049371</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5218666028641123</v>
+        <v>0.6298422258482965</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6722085031265705</v>
+        <v>0.006736758186713546</v>
       </c>
       <c r="K12" t="n">
-        <v>0.597037336690963</v>
+        <v>0.3182894234125901</v>
       </c>
       <c r="L12" t="n">
-        <v>1.849331885387363</v>
+        <v>0.218149769449301</v>
       </c>
       <c r="M12" t="n">
-        <v>0.44031982271748</v>
+        <v>0.3194551093290712</v>
       </c>
       <c r="N12" t="n">
-        <v>1.009532201934592</v>
+        <v>1.005017373555569</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4590651491582519</v>
+        <v>0.3330549746964503</v>
       </c>
       <c r="P12" t="n">
-        <v>197.2810157851972</v>
+        <v>198.5645540716736</v>
       </c>
       <c r="Q12" t="n">
-        <v>315.5119707974127</v>
+        <v>316.7955090838891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_11</t>
+          <t>model_38_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9692560964963469</v>
+        <v>0.9847385850872857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6959237171582171</v>
+        <v>0.7773650651678625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1957006452255313</v>
+        <v>0.9132081797028466</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6599622898779616</v>
+        <v>0.9983470030721381</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1047266939308762</v>
+        <v>0.9477339778946028</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2055846242915871</v>
+        <v>0.1020531517936743</v>
       </c>
       <c r="H13" t="n">
-        <v>2.033359503505541</v>
+        <v>1.488760834362117</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5634245044319826</v>
+        <v>0.6297760542184165</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7071593375402825</v>
+        <v>0.006521275943291284</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6352921440586615</v>
+        <v>0.3181486216257691</v>
       </c>
       <c r="L13" t="n">
-        <v>1.925424040448164</v>
+        <v>0.218830141873339</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4534144067975642</v>
+        <v>0.3194575899766263</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01010758471353</v>
+        <v>1.005017451478153</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4727171967921512</v>
+        <v>0.3330575609503074</v>
       </c>
       <c r="P13" t="n">
-        <v>197.1637950655432</v>
+        <v>198.5645230108097</v>
       </c>
       <c r="Q13" t="n">
-        <v>315.3947500777587</v>
+        <v>316.7954780230251</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9676043707634659</v>
+        <v>0.9847374489986432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6939799198690921</v>
+        <v>0.7772141690608434</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1398151929023479</v>
+        <v>0.913218741398411</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.73650276818084</v>
+        <v>0.9984067812541334</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1671143885227324</v>
+        <v>0.9477596277927889</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2166297218728595</v>
+        <v>0.102060748823658</v>
       </c>
       <c r="H14" t="n">
-        <v>2.046357684928283</v>
+        <v>1.489769877324566</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6025731536174292</v>
+        <v>0.62969941677798</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7397662914823864</v>
+        <v>0.006285443671852263</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6711692641444528</v>
+        <v>0.3179924880723816</v>
       </c>
       <c r="L14" t="n">
-        <v>1.994600929527167</v>
+        <v>0.2195906343668817</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4654349813592222</v>
+        <v>0.3194694802694898</v>
       </c>
       <c r="N14" t="n">
-        <v>1.010650617831189</v>
+        <v>1.005017824986747</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4852495120989186</v>
+        <v>0.3330699574375544</v>
       </c>
       <c r="P14" t="n">
-        <v>197.0591314674655</v>
+        <v>198.5643741325615</v>
       </c>
       <c r="Q14" t="n">
-        <v>315.290086479681</v>
+        <v>316.795329144777</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_13</t>
+          <t>model_38_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9660551240465313</v>
+        <v>0.9847350077362448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6921668245113304</v>
+        <v>0.7770451006041379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08747206221849246</v>
+        <v>0.9132304280435803</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8075977192445574</v>
+        <v>0.9984720510906645</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2253299201575913</v>
+        <v>0.947787753941096</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2269895418026271</v>
+        <v>0.1020770735565572</v>
       </c>
       <c r="H15" t="n">
-        <v>2.058481861934173</v>
+        <v>1.490900438873044</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6392403500921042</v>
+        <v>0.6296146165138927</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7700534002939807</v>
+        <v>0.006027946148645625</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7046471099437854</v>
+        <v>0.3178212813312692</v>
       </c>
       <c r="L15" t="n">
-        <v>2.05742488566568</v>
+        <v>0.2204294902508467</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4764341946193903</v>
+        <v>0.3194950290013245</v>
       </c>
       <c r="N15" t="n">
-        <v>1.011159959217579</v>
+        <v>1.005018627593563</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4967169846390825</v>
+        <v>0.3330965938317965</v>
       </c>
       <c r="P15" t="n">
-        <v>196.9657026678322</v>
+        <v>198.5640542558675</v>
       </c>
       <c r="Q15" t="n">
-        <v>315.1966576800477</v>
+        <v>316.795009268083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_14</t>
+          <t>model_38_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9646099201489944</v>
+        <v>0.9847308701473012</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6904832736211373</v>
+        <v>0.7768554741430773</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0387005698233035</v>
+        <v>0.9132435307863856</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.8733732638234006</v>
+        <v>0.9985431922185246</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2793977270332</v>
+        <v>0.9478186125130411</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2366536269200087</v>
+        <v>0.1021047416328747</v>
       </c>
       <c r="H16" t="n">
-        <v>2.069739774488934</v>
+        <v>1.492168471891306</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6734055570763531</v>
+        <v>0.6295195408070451</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7980743925866103</v>
+        <v>0.005747285659885222</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7357397350638808</v>
+        <v>0.3176334420480372</v>
       </c>
       <c r="L16" t="n">
-        <v>2.114398093723955</v>
+        <v>0.221359904772097</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4864705817621541</v>
+        <v>0.3195383257652745</v>
       </c>
       <c r="N16" t="n">
-        <v>1.011635094745536</v>
+        <v>1.005019987896778</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5071806415606992</v>
+        <v>0.3331417338286244</v>
       </c>
       <c r="P16" t="n">
-        <v>196.8823153933078</v>
+        <v>198.563512227647</v>
       </c>
       <c r="Q16" t="n">
-        <v>315.1132704055233</v>
+        <v>316.7944672398625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_15</t>
+          <t>model_38_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9632676894264589</v>
+        <v>0.9847245443653218</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6889257755766123</v>
+        <v>0.7766426393395746</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00655627167409345</v>
+        <v>0.9132584014829648</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9340288279490041</v>
+        <v>0.9986204635208191</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3294296585333305</v>
+        <v>0.9478525148798425</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2456291299420073</v>
+        <v>0.1021470421660993</v>
       </c>
       <c r="H17" t="n">
-        <v>2.080154771084291</v>
+        <v>1.493591699202343</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7051086951448621</v>
+        <v>0.6294116365300864</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8239142257001368</v>
+        <v>0.005442440879918326</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7645114604224995</v>
+        <v>0.3174270748742367</v>
       </c>
       <c r="L17" t="n">
-        <v>2.166028245241991</v>
+        <v>0.2223843052289159</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4956098565827836</v>
+        <v>0.3196045089889992</v>
       </c>
       <c r="N17" t="n">
-        <v>1.012076376078972</v>
+        <v>1.005022067605922</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5167089942313499</v>
+        <v>0.3332107346092013</v>
       </c>
       <c r="P17" t="n">
-        <v>196.8078649649734</v>
+        <v>198.5626838278545</v>
       </c>
       <c r="Q17" t="n">
-        <v>315.0388199771889</v>
+        <v>316.79363884007</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_16</t>
+          <t>model_38_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9620258773643804</v>
+        <v>0.9847153524803867</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6874896467696042</v>
+        <v>0.7764034430621715</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.04839684357954144</v>
+        <v>0.9132751590001598</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9898046145202639</v>
+        <v>0.9987041840393932</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.375573811957195</v>
+        <v>0.9478896517832666</v>
       </c>
       <c r="G18" t="n">
-        <v>0.253933132919145</v>
+        <v>0.1022085083429845</v>
       </c>
       <c r="H18" t="n">
-        <v>2.089758171029519</v>
+        <v>1.495191205810735</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7344186819688452</v>
+        <v>0.6292900411652078</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8476752282982259</v>
+        <v>0.005112153149472959</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7910474519265238</v>
+        <v>0.3172010187452277</v>
       </c>
       <c r="L18" t="n">
-        <v>2.212772490081515</v>
+        <v>0.2235224070770471</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5039177838885477</v>
+        <v>0.3197006542736259</v>
       </c>
       <c r="N18" t="n">
-        <v>1.012484643058286</v>
+        <v>1.005025089595489</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5253706072023008</v>
+        <v>0.3333109729976427</v>
       </c>
       <c r="P18" t="n">
-        <v>196.7413686056909</v>
+        <v>198.561480705579</v>
       </c>
       <c r="Q18" t="n">
-        <v>314.9723236179063</v>
+        <v>316.7924357177944</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_17</t>
+          <t>model_38_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9608807325616251</v>
+        <v>0.9847024551718221</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6861691389262563</v>
+        <v>0.7761343466482484</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.08695782294869114</v>
+        <v>0.9132940464505946</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.040967041363813</v>
+        <v>0.9987944267456206</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4180090631852496</v>
+        <v>0.9479301259400178</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2615907214880768</v>
+        <v>0.1022947527047428</v>
       </c>
       <c r="H19" t="n">
-        <v>2.098588413058366</v>
+        <v>1.496990654769714</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7614312620020185</v>
+        <v>0.6291529906462947</v>
       </c>
       <c r="J19" t="n">
-        <v>0.869470896846996</v>
+        <v>0.004756134587514929</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8154505752369718</v>
+        <v>0.3169546484139276</v>
       </c>
       <c r="L19" t="n">
-        <v>2.255067154912374</v>
+        <v>0.2247801330681745</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5114594035581679</v>
+        <v>0.319835508824056</v>
       </c>
       <c r="N19" t="n">
-        <v>1.012861129020836</v>
+        <v>1.005029329806524</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5332332892345616</v>
+        <v>0.333451568585472</v>
       </c>
       <c r="P19" t="n">
-        <v>196.6819482566917</v>
+        <v>198.5597938010977</v>
       </c>
       <c r="Q19" t="n">
-        <v>314.9129032689072</v>
+        <v>316.7907488133132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_18</t>
+          <t>model_38_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9598277621796557</v>
+        <v>0.9846848020094978</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6849579236862376</v>
+        <v>0.775831198828834</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1224019437753605</v>
+        <v>0.9133152572173848</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.087788597757075</v>
+        <v>0.9988913471431616</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4569402367280813</v>
+        <v>0.9479741875335655</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2686319392807892</v>
+        <v>0.1024127994824905</v>
       </c>
       <c r="H20" t="n">
-        <v>2.106687814945504</v>
+        <v>1.499017805634005</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7862604329981748</v>
+        <v>0.628999081752918</v>
       </c>
       <c r="J20" t="n">
-        <v>0.889417314306936</v>
+        <v>0.004373771713001735</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8378386182222832</v>
+        <v>0.3166864409879712</v>
       </c>
       <c r="L20" t="n">
-        <v>2.293312209733398</v>
+        <v>0.2261674311947439</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5182971534561898</v>
+        <v>0.3200199985664811</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013207311064223</v>
+        <v>1.005035133585918</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5403621363018359</v>
+        <v>0.3336439124381785</v>
       </c>
       <c r="P20" t="n">
-        <v>196.6288261835166</v>
+        <v>198.5574871584835</v>
       </c>
       <c r="Q20" t="n">
-        <v>314.859781195732</v>
+        <v>316.788442170699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_19</t>
+          <t>model_38_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9588619852672392</v>
+        <v>0.9846611297599033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6838493469238833</v>
+        <v>0.7754893016402543</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1548958414083339</v>
+        <v>0.9133394128488209</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.13056434105318</v>
+        <v>0.9989947551531074</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.492575054372135</v>
+        <v>0.9480221108699589</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2750900939411116</v>
+        <v>0.1025710959245301</v>
       </c>
       <c r="H21" t="n">
-        <v>2.114100872859894</v>
+        <v>1.50130407370833</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8090229256723798</v>
+        <v>0.6288238044260811</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9076401778481864</v>
+        <v>0.003965814410579277</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8583310348793636</v>
+        <v>0.3163947267383865</v>
       </c>
       <c r="L21" t="n">
-        <v>2.327871848522484</v>
+        <v>0.2276954344632898</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5244903182529794</v>
+        <v>0.3202672258045304</v>
       </c>
       <c r="N21" t="n">
-        <v>1.013524826761456</v>
+        <v>1.005042916243319</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5468189569456433</v>
+        <v>0.3339016646515826</v>
       </c>
       <c r="P21" t="n">
-        <v>196.5813132412762</v>
+        <v>198.5543982041402</v>
       </c>
       <c r="Q21" t="n">
-        <v>314.8122682534917</v>
+        <v>316.7853532163556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_20</t>
+          <t>model_38_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9579779701006592</v>
+        <v>0.9846297669308843</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6828366958201395</v>
+        <v>0.7751031673697693</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.184632623182174</v>
+        <v>0.9133666858071228</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.169575183585537</v>
+        <v>0.9991043899352801</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.525137423061482</v>
+        <v>0.9480738572902815</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2810015074305479</v>
+        <v>0.102780819306592</v>
       </c>
       <c r="H22" t="n">
-        <v>2.120872475453458</v>
+        <v>1.503886155353048</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8298540147872355</v>
+        <v>0.6286259072508942</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9242591587312389</v>
+        <v>0.003533291726792563</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8770565867592371</v>
+        <v>0.3160797409859507</v>
       </c>
       <c r="L22" t="n">
-        <v>2.359096096550227</v>
+        <v>0.2293868024034411</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5300957530772604</v>
+        <v>0.3205944779727062</v>
       </c>
       <c r="N22" t="n">
-        <v>1.013815461884715</v>
+        <v>1.005053227310394</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5526630267352437</v>
+        <v>0.3342428486220629</v>
       </c>
       <c r="P22" t="n">
-        <v>196.5387904902825</v>
+        <v>198.550313051981</v>
       </c>
       <c r="Q22" t="n">
-        <v>314.769745502498</v>
+        <v>316.7812680641964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_21</t>
+          <t>model_38_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9571704621967563</v>
+        <v>0.984588669135317</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6819130611661006</v>
+        <v>0.7746663116362178</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2117872913200953</v>
+        <v>0.9133976581611748</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.205101214150326</v>
+        <v>0.9992194575145736</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5548354244109455</v>
+        <v>0.9481296300901563</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2864013165021788</v>
+        <v>0.1030556404547891</v>
       </c>
       <c r="H23" t="n">
-        <v>2.127048824637963</v>
+        <v>1.506807411654842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8488762921865669</v>
+        <v>0.6284011666375739</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9393935773820858</v>
+        <v>0.003079335990969997</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8941349347843264</v>
+        <v>0.3157402462494163</v>
       </c>
       <c r="L23" t="n">
-        <v>2.387286931835968</v>
+        <v>0.2312492646563473</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5351647564088827</v>
+        <v>0.321022803636734</v>
       </c>
       <c r="N23" t="n">
-        <v>1.014080943935313</v>
+        <v>1.005066738914416</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5579478280329766</v>
+        <v>0.3346894089963648</v>
       </c>
       <c r="P23" t="n">
-        <v>196.5007224943614</v>
+        <v>198.5449724760341</v>
       </c>
       <c r="Q23" t="n">
-        <v>314.7316775065769</v>
+        <v>316.7759274882496</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_22</t>
+          <t>model_38_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9564339033563388</v>
+        <v>0.9845352192300739</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6810718489288012</v>
+        <v>0.774171235736645</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2365519832259511</v>
+        <v>0.9134325227504889</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.237414921374664</v>
+        <v>0.9993389137270733</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5818879126111665</v>
+        <v>0.948189120024686</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2913266888595921</v>
+        <v>0.1034130602172637</v>
       </c>
       <c r="H24" t="n">
-        <v>2.13267401474221</v>
+        <v>1.5101179864749</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8662243531810707</v>
+        <v>0.6281481833101705</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9531595164841804</v>
+        <v>0.002608066558026448</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9096919348326256</v>
+        <v>0.3153781249340985</v>
       </c>
       <c r="L24" t="n">
-        <v>2.412736584189926</v>
+        <v>0.2332952995719148</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5397468748029878</v>
+        <v>0.3215790108468893</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014323100266409</v>
+        <v>1.005084311486003</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5627250166934114</v>
+        <v>0.335269295098964</v>
       </c>
       <c r="P24" t="n">
-        <v>196.4666199987458</v>
+        <v>198.538048034347</v>
       </c>
       <c r="Q24" t="n">
-        <v>314.6975750109613</v>
+        <v>316.7690030465624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_23</t>
+          <t>model_38_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9557632689981028</v>
+        <v>0.9834154808555683</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6803068329902198</v>
+        <v>0.7681010039142357</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2590960617409679</v>
+        <v>0.9138496456620797</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.266765080076622</v>
+        <v>0.9999999595758681</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6064907468979919</v>
+        <v>0.9486519636893047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.295811223901103</v>
+        <v>0.1109007558835034</v>
       </c>
       <c r="H25" t="n">
-        <v>2.13778967984608</v>
+        <v>1.550709654622199</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8820168391376966</v>
+        <v>0.625121469266308</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9656629564182914</v>
+        <v>1.594781663649921e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9238402191366665</v>
+        <v>0.3125607482141005</v>
       </c>
       <c r="L25" t="n">
-        <v>2.435696730448392</v>
+        <v>0.2549815148173322</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5438853039944203</v>
+        <v>0.3330176510089269</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014543582795144</v>
+        <v>1.005452444650224</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5670396273832526</v>
+        <v>0.347194901853949</v>
       </c>
       <c r="P25" t="n">
-        <v>196.436067570405</v>
+        <v>198.3982391374946</v>
       </c>
       <c r="Q25" t="n">
-        <v>314.6670225826205</v>
+        <v>316.6291941497101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_24</t>
+          <t>model_38_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.955153143402855</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6796116887193313</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2796034068612245</v>
+        <v>0.9138545152087441</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.293408776897826</v>
+        <v>0.9999999999996582</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6288490031336034</v>
+        <v>0.9486548683070591</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2998911365658959</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H26" t="n">
-        <v>2.142438112786355</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8963825609215169</v>
+        <v>0.6250861350162187</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9770134184791447</v>
+        <v>1.348550217071171e-12</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9366977201089598</v>
+        <v>0.3125430675087836</v>
       </c>
       <c r="L26" t="n">
-        <v>2.456414045955274</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5476231702237369</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014744172031938</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5709366223164011</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P26" t="n">
-        <v>196.4086714965916</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q26" t="n">
-        <v>314.6396265088071</v>
+        <v>316.628686765987</v>
       </c>
     </row>
   </sheetData>
